--- a/translations/download/rts27_2019/Q1/Table_1.xlsx
+++ b/translations/download/rts27_2019/Q1/Table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyletabonebetts/Dropbox (Binary Services Ltd)/RMG_incorporation/Binary Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2019/Q1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadijatartari/Dropbox (Deriv)/RMG_incorporation/Deriv Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2019/Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88F597-7B90-8F46-B811-D47624BBF109}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C02865-724A-794D-B24D-D8569F4D3048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type of Execution Venue" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Venue</t>
   </si>
   <si>
-    <t>Binary Investments (Europe) Ltd</t>
-  </si>
-  <si>
     <t>Legal Entity Identifier: 529900GJO69GVJ6GK177</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">Market Segment </t>
-  </si>
-  <si>
-    <t>The Market Segment for Binary Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
   <si>
     <t>TYPE OF EXECUTION</t>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>Database update - trading impacted</t>
+  </si>
+  <si>
+    <t>Deriv Investments (Europe) Ltd</t>
+  </si>
+  <si>
+    <t>The Market Segment for Deriv Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,21 +506,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -530,21 +530,21 @@
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -555,42 +555,42 @@
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>43467</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -601,19 +601,19 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
         <v>43468</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -624,19 +624,19 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6">
         <v>43469</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -647,19 +647,19 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6">
         <v>43471</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -670,19 +670,19 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6">
         <v>43472</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -693,19 +693,19 @@
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6">
         <v>43473</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -716,19 +716,19 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>43474</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -739,19 +739,19 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6">
         <v>43475</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -762,19 +762,19 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>43476</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -785,19 +785,19 @@
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6">
         <v>43478</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -808,19 +808,19 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6">
         <v>43479</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -831,19 +831,19 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6">
         <v>43480</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -854,19 +854,19 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="6">
         <v>43481</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -877,19 +877,19 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6">
         <v>43482</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -900,19 +900,19 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="6">
         <v>43483</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -923,19 +923,19 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6">
         <v>43485</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -946,19 +946,19 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6">
         <v>43486</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -969,19 +969,19 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="6">
         <v>43487</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -992,19 +992,19 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="6">
         <v>43488</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1015,19 +1015,19 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="6">
         <v>43489</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1038,19 +1038,19 @@
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="6">
         <v>43490</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="6">
         <v>43493</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -1084,19 +1084,19 @@
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="6">
         <v>43494</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1107,19 +1107,19 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="6">
         <v>43495</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1130,19 +1130,19 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="6">
         <v>43496</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1153,19 +1153,19 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="6">
         <v>43497</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1176,19 +1176,19 @@
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="6">
         <v>43498</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1199,19 +1199,19 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="6">
         <v>43499</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1222,19 +1222,19 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="6">
         <v>43500</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1245,19 +1245,19 @@
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="6">
         <v>43501</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1268,19 +1268,19 @@
     </row>
     <row r="37" spans="1:7" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="6">
         <v>43502</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="6">
         <v>43503</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1314,19 +1314,19 @@
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="6">
         <v>43504</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="6">
         <v>43505</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1360,19 +1360,19 @@
     </row>
     <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="6">
         <v>43506</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1383,19 +1383,19 @@
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="6">
         <v>43507</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1406,19 +1406,19 @@
     </row>
     <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="6">
         <v>43508</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1429,19 +1429,19 @@
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6">
         <v>43509</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1452,19 +1452,19 @@
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="6">
         <v>43510</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1475,19 +1475,19 @@
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="6">
         <v>43511</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1498,19 +1498,19 @@
     </row>
     <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="6">
         <v>43513</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1521,19 +1521,19 @@
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="6">
         <v>43514</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1544,19 +1544,19 @@
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="6">
         <v>43515</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="6">
         <v>43516</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -1590,19 +1590,19 @@
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="6">
         <v>43517</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -1613,19 +1613,19 @@
     </row>
     <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="6">
         <v>43518</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -1636,19 +1636,19 @@
     </row>
     <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="6">
         <v>43520</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -1659,19 +1659,19 @@
     </row>
     <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="6">
         <v>43521</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -1682,19 +1682,19 @@
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="6">
         <v>43522</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -1705,19 +1705,19 @@
     </row>
     <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="6">
         <v>43523</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -1728,19 +1728,19 @@
     </row>
     <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="6">
         <v>43524</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -1751,19 +1751,19 @@
     </row>
     <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="6">
         <v>43525</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -1774,19 +1774,19 @@
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="6">
         <v>43527</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -1797,19 +1797,19 @@
     </row>
     <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" s="6">
         <v>43528</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -1820,19 +1820,19 @@
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="6">
         <v>43529</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -1843,19 +1843,19 @@
     </row>
     <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="6">
         <v>43530</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -1866,19 +1866,19 @@
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="6">
         <v>43531</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -1889,19 +1889,19 @@
     </row>
     <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" s="6">
         <v>43532</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -1912,19 +1912,19 @@
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B65" s="6">
         <v>43534</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -1935,19 +1935,19 @@
     </row>
     <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66" s="6">
         <v>43535</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -1958,19 +1958,19 @@
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67" s="6">
         <v>43536</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
@@ -1981,19 +1981,19 @@
     </row>
     <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68" s="6">
         <v>43537</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2004,19 +2004,19 @@
     </row>
     <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" s="6">
         <v>43538</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2027,19 +2027,19 @@
     </row>
     <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B70" s="6">
         <v>43539</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2050,19 +2050,19 @@
     </row>
     <row r="71" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" s="6">
         <v>43541</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2073,19 +2073,19 @@
     </row>
     <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" s="6">
         <v>43542</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2096,19 +2096,19 @@
     </row>
     <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73" s="6">
         <v>43543</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2119,19 +2119,19 @@
     </row>
     <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" s="6">
         <v>43544</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2142,19 +2142,19 @@
     </row>
     <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75" s="6">
         <v>43545</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
     </row>
     <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B76" s="6">
         <v>43546</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2188,19 +2188,19 @@
     </row>
     <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B77" s="6">
         <v>43548</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2211,19 +2211,19 @@
     </row>
     <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" s="6">
         <v>43549</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2234,19 +2234,19 @@
     </row>
     <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" s="6">
         <v>43550</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2257,19 +2257,19 @@
     </row>
     <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" s="6">
         <v>43551</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2280,19 +2280,19 @@
     </row>
     <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" s="6">
         <v>43552</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2303,19 +2303,19 @@
     </row>
     <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" s="6">
         <v>43553</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2326,19 +2326,19 @@
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B83" s="6">
         <v>43554</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2349,19 +2349,19 @@
     </row>
     <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B84" s="6">
         <v>43555</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
